--- a/similarities/split_global/harmonic_similarity_timestamps_329.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_329.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:08.180000'), ('0:00:25.780000', '0:00:35.100000')]</t>
+          <t>('0:01:00.820000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:03.700000', '0:01:06.700000')]</t>
+          <t>('0:01:35.260000', '0:01:53.640000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=25.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=60.82</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.7']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=95.26</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:30.020000', '0:00:42.100000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:55.230000', '0:01:07.670000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_81</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:42.960000', '0:00:45.780000')]</t>
+          <t>('0:00:58.060000', '0:01:00.620000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:27.250000', '0:00:30.810000')]</t>
+          <t>('0:00:19.260000', '0:00:22.260000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=58.06</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-81#t=19.26</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['Bb:min', 'F:7', 'Bb:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:43.680000', '0:00:44.980000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:54.040000', '0:01:01.920000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=43.68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=54.04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+          <t>('0:00:37.940000', '0:00:42.840000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:13.420000')]</t>
+          <t>('0:00:28.020000', '0:00:30.100000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=37.94</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['F', 'C', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+          <t>('0:00:02.252358', '0:00:05.805011')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:01:01.020000', '0:01:08.700000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=2.252358</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=61.02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:07.560000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:14.054444')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.440000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:01:12.520000', '0:01:23.280000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
+          <t>['E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:min', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:01:12.140000', '0:01:15.300000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:12.520000', '0:01:23.280000'), ('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:01:01.052063', '0:01:13.416689')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=72.14</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=61.052063</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+          <t>('0:00:01.421269', '0:00:26.162131')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:42.011269')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_99</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Bb/3']]</t>
+          <t>['B', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>['G:maj/B', 'F:maj/A', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:25.942000', '0:00:29.102000')]</t>
+          <t>('0:00:20.614081', '0:00:24.271224')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
+          <t>('0:00:28.840000', '0:00:31.760000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=25.942']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-99#t=20.614081</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=28.84</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#', 'A#/F', 'F:7', 'A#']]</t>
+          <t>['Ab', 'Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['G', 'A:7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:04:29.700000', '0:04:38.420000')]</t>
+          <t>('0:02:10.090000', '0:02:13.240000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:03:49.260000', '0:04:01.060000')]</t>
+          <t>('0:00:00.560000', '0:00:11.630000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=130.09</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=229.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=0.56</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'C:7']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Eb:7']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:17.839297')]</t>
+          <t>('0:00:37.633000', '0:00:41.753000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:15.250000', '0:00:24.920000')]</t>
+          <t>('0:00:06.610000', '0:00:10.460000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=15.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=6.61</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_244</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7/D#', 'A#:maj/D'], ['F:maj', 'C:7/A#', 'F:maj/A'], ['G:min/A#', 'C:7', 'F:maj']]</t>
+          <t>['B', 'A', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb'], ['Bb', 'F:7', 'Bb'], ['C:min', 'F:7', 'Bb']]</t>
+          <t>['C', 'Bb/5', 'F']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:56.440000', '0:01:05.460000'), ('0:01:14.900000', '0:01:26.120000'), ('0:00:05.400000', '0:00:12.500000')]</t>
+          <t>('0:00:32.669000', '0:00:54.729000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.950000', '0:00:15.800000'), ('0:00:07.590000', '0:00:14.680000'), ('0:00:26.110000', '0:00:31.880000')]</t>
+          <t>('0:00:31.217551', '0:00:34.874693')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=56.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=5.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=32.669</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=11.95', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=26.11']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-244#t=31.217551</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'C/6']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'C/6']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:09.901000', '0:01:17.903000')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:38.347879', '0:01:40.286746')]</t>
+          <t>('0:00:43.340000', '0:00:59.340000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=69.901']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=98.347879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
